--- a/02_MasterWifoMannheim/99_Backup/Course131.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course131.xlsx
@@ -1,139 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F592811598EA8717479F983" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AD93966-326E-4B48-949D-21B2ACD4DB6D}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Modul</t>
-  </si>
-  <si>
-    <t>MAN 692 Organisationstheorie</t>
-  </si>
-  <si>
-    <t>Lerninhalte</t>
-  </si>
-  <si>
-    <t>Die Analyse der Beziehungen von Organisationen mit ihrem Umfeld und des Verhaltens von Individuen innerhalb von Organisationen, stellt die wie Organisationen arbeiten und wie sie geführt werden. So können Wettbewerbsvorteile erreicht und erhalten werden sowie Wandel antizipiert oder sogar initiiert werden. Diese Veranstaltung bietet eine umfassende Einführung in die Organisationstheorie. Neben den klassischen Organisationstheorien werden eine Vielzahl von Institutionenökonomik, der Ressourcenbasierte Netzwerke abgedeckt.</t>
-  </si>
-  <si>
-    <t>Lern- und Qualifikationsziele</t>
-  </si>
-  <si>
-    <t>Ziel dieser Veranstaltung ist es einen Überblick über die wichtigsten Themen und Argumente innerhalb der Organisationstheorie zu geben. theoretische Inhalte systematisch auf reale übertragen, um so den Wert der Theorie für die Entscheidungsfindung aufzuzeigen.</t>
-  </si>
-  <si>
-    <t>Voraussetzungen</t>
-  </si>
-  <si>
-    <t>Anmeldepflicht:</t>
-  </si>
-  <si>
-    <t>Weitere Infos zur Anmeldung:</t>
-  </si>
-  <si>
-    <t>Lehrveranstaltungen und -form PräsenzstudiumSelbststudium Vorlesung 2 10</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Prüfungsform und -umfang</t>
-  </si>
-  <si>
-    <t>Schriftliche Klausur (60 Min., 100)</t>
-  </si>
-  <si>
-    <t>Vorleistungen</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Dozent(en)/Modulverantwortlicher</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Karin Hoisl</t>
-  </si>
-  <si>
-    <t>Dauer des Moduls</t>
-  </si>
-  <si>
-    <t>1 Semester</t>
-  </si>
-  <si>
-    <t>Angebotsturnus</t>
-  </si>
-  <si>
-    <t>FWS</t>
-  </si>
-  <si>
-    <t>Sprache</t>
-  </si>
-  <si>
-    <t>Deutsch</t>
-  </si>
-  <si>
-    <t>Programmspezifische Lernziele</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>benotet</t>
-  </si>
-  <si>
-    <t>Verwendbarkeit</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. Wirt. Inf., M.Sc. Wipäd, LL.M., M.Sc. VWL</t>
-  </si>
-  <si>
-    <t>Management (MAN)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -148,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,143 +420,209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Modul</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAN 692 Organisationstheorie</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lerninhalte</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Die Analyse der Beziehungen von Organisationen mit ihrem Umfeld und des Verhaltens von Individuen innerhalb von Organisationen, stellt die wie Organisationen arbeiten und wie sie geführt werden. So können Wettbewerbsvorteile erreicht und erhalten werden sowie Wandel antizipiert oder sogar initiiert werden. Diese Veranstaltung bietet eine umfassende Einführung in die Organisationstheorie. Neben den klassischen Organisationstheorien werden eine Vielzahl von Institutionenökonomik, der Ressourcenbasierte Netzwerke abgedeckt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lern- und Qualifikationsziele</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ziel dieser Veranstaltung ist es einen Überblick über die wichtigsten Themen und Argumente innerhalb der Organisationstheorie zu geben. theoretische Inhalte systematisch auf reale übertragen, um so den Wert der Theorie für die Entscheidungsfindung aufzuzeigen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Voraussetzungen</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Management (MAN)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Anmeldepflicht:</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Weitere Infos zur Anmeldung:</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lehrveranstaltungen und -form PräsenzstudiumSelbststudium Vorlesung 2 10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Prüfungsform und -umfang</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Schriftliche Klausur (60 Min., 100)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Vorleistungen</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dozent(en)/Modulverantwortlicher</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Karin Hoisl</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Dauer des Moduls</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sprache</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Deutsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Programmspezifische Lernziele</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>benotet</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Verwendbarkeit</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. Wirt. Inf., M.Sc. Wipäd, LL.M., M.Sc. VWL</t>
+        </is>
       </c>
     </row>
   </sheetData>
